--- a/rekap_ppnpns.xlsx
+++ b/rekap_ppnpns.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223D8746-761E-46D7-8026-7805F05D32ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="102" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Tanggal</t>
   </si>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -177,6 +176,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,100 +511,102 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -4234,13 +4238,7 @@
       <c r="Q197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E5:E6"/>
+  <mergeCells count="16">
     <mergeCell ref="P4:P6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
@@ -4252,6 +4250,11 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4259,11 +4262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF984FF4-C6A4-4027-9796-90ED9EF8AD05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,100 +4299,102 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -8021,7 +8026,16 @@
       <c r="Q197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -8029,16 +8043,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8046,11 +8050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D518276-909D-4B88-A709-31354DB77BEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8083,100 +8087,102 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -11808,7 +11814,16 @@
       <c r="Q197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -11816,16 +11831,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11833,11 +11838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE9F1E6-366E-401F-BBF4-521971DD7CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11870,100 +11875,102 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -15595,7 +15602,16 @@
       <c r="Q197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -15603,16 +15619,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/rekap_ppnpns.xlsx
+++ b/rekap_ppnpns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48E61A-3899-4092-9909-A94404FE3E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B463DF-508A-4DFB-AF02-EBF77A8A9131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="102" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
   <si>
     <t>Tanggal</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Pertengahan</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>PSW</t>
+  </si>
+  <si>
+    <t>1 - 60</t>
+  </si>
+  <si>
+    <t>61 - 90</t>
+  </si>
+  <si>
+    <t>&gt; 90</t>
+  </si>
+  <si>
+    <t>Tidak Absen</t>
   </si>
 </sst>
 </file>
@@ -117,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -152,11 +170,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,11 +476,2567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N197"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -459,75 +3048,114 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -535,8 +3163,15 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -544,8 +3179,15 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -553,8 +3195,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -562,8 +3211,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -571,8 +3227,15 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -580,8 +3243,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -589,8 +3259,15 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -598,8 +3275,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -607,8 +3291,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -616,8 +3307,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
@@ -625,8 +3323,15 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
@@ -634,8 +3339,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
@@ -643,8 +3355,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="9"/>
@@ -652,8 +3371,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="9"/>
@@ -661,8 +3387,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="9"/>
@@ -670,8 +3403,15 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="9"/>
@@ -679,8 +3419,15 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="9"/>
@@ -688,8 +3435,15 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="9"/>
@@ -697,8 +3451,15 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="9"/>
@@ -706,8 +3467,15 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
@@ -715,8 +3483,15 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
@@ -724,8 +3499,15 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -733,8 +3515,15 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
@@ -742,8 +3531,15 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="9"/>
@@ -751,8 +3547,15 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="9"/>
@@ -760,8 +3563,15 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="9"/>
@@ -769,8 +3579,15 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="9"/>
@@ -778,8 +3595,15 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="9"/>
@@ -787,8 +3611,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="9"/>
@@ -796,8 +3627,15 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="9"/>
@@ -805,8 +3643,15 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="9"/>
@@ -814,8 +3659,15 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="9"/>
@@ -823,8 +3675,15 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="9"/>
@@ -832,8 +3691,15 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="9"/>
@@ -841,8 +3707,15 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="9"/>
@@ -850,8 +3723,15 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="9"/>
@@ -859,8 +3739,15 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="9"/>
@@ -868,8 +3755,15 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="9"/>
@@ -877,8 +3771,15 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="9"/>
@@ -886,8 +3787,15 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="9"/>
@@ -895,8 +3803,15 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="9"/>
@@ -904,8 +3819,15 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="9"/>
@@ -913,8 +3835,15 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="9"/>
@@ -922,8 +3851,15 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="9"/>
@@ -931,8 +3867,15 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="9"/>
@@ -940,8 +3883,15 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="9"/>
@@ -949,8 +3899,15 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="9"/>
@@ -958,8 +3915,15 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="9"/>
@@ -967,8 +3931,15 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="9"/>
@@ -976,8 +3947,15 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="9"/>
@@ -985,8 +3963,15 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="9"/>
@@ -994,8 +3979,15 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="9"/>
@@ -1003,8 +3995,15 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="9"/>
@@ -1012,8 +4011,15 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="9"/>
@@ -1021,8 +4027,15 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="9"/>
@@ -1030,8 +4043,15 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="9"/>
@@ -1039,8 +4059,15 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="9"/>
@@ -1048,8 +4075,15 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="9"/>
@@ -1057,8 +4091,15 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="9"/>
@@ -1066,8 +4107,15 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="9"/>
@@ -1075,8 +4123,15 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="9"/>
@@ -1084,8 +4139,15 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="9"/>
@@ -1093,8 +4155,15 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="9"/>
@@ -1102,8 +4171,15 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="9"/>
@@ -1111,8 +4187,15 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="9"/>
@@ -1121,7 +4204,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="9"/>
@@ -1130,7 +4213,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="9"/>
@@ -1139,7 +4222,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="9"/>
@@ -1148,7 +4231,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="9"/>
@@ -1157,7 +4240,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="9"/>
@@ -1166,7 +4249,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="9"/>
@@ -1175,7 +4258,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="9"/>
@@ -1184,7 +4267,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="9"/>
@@ -2247,1825 +5330,16 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G197"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A4:A6"/>
@@ -4079,11 +5353,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4095,75 +5367,114 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -4171,8 +5482,15 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -4180,8 +5498,15 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -4189,8 +5514,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -4198,8 +5530,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -4207,8 +5546,15 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -4216,8 +5562,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -4225,8 +5578,15 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -4234,8 +5594,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -4243,8 +5610,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -4252,8 +5626,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
@@ -4261,8 +5642,15 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
@@ -4270,8 +5658,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
@@ -4279,8 +5674,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="9"/>
@@ -4288,8 +5690,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="9"/>
@@ -4297,8 +5706,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="9"/>
@@ -4306,8 +5722,15 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="9"/>
@@ -4315,8 +5738,15 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="9"/>
@@ -4324,8 +5754,15 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="9"/>
@@ -4333,8 +5770,15 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="9"/>
@@ -4342,8 +5786,15 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
@@ -4351,8 +5802,15 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
@@ -4360,8 +5818,15 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -4369,8 +5834,15 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
@@ -4378,8 +5850,15 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="9"/>
@@ -4387,8 +5866,15 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="9"/>
@@ -4396,8 +5882,15 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="9"/>
@@ -4405,8 +5898,15 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="9"/>
@@ -4414,8 +5914,15 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="9"/>
@@ -4423,8 +5930,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="9"/>
@@ -4432,8 +5946,15 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="9"/>
@@ -4441,8 +5962,15 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="9"/>
@@ -4450,8 +5978,15 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="9"/>
@@ -4459,8 +5994,15 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="9"/>
@@ -4468,8 +6010,15 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="9"/>
@@ -4477,8 +6026,15 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="9"/>
@@ -4486,8 +6042,15 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="9"/>
@@ -4495,8 +6058,15 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="9"/>
@@ -4504,8 +6074,15 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="9"/>
@@ -4513,8 +6090,15 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="9"/>
@@ -4522,8 +6106,15 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="9"/>
@@ -4531,8 +6122,15 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="9"/>
@@ -4540,8 +6138,15 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="9"/>
@@ -4549,8 +6154,15 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="9"/>
@@ -4558,8 +6170,15 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="9"/>
@@ -4567,8 +6186,15 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="9"/>
@@ -4576,8 +6202,15 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="9"/>
@@ -4585,8 +6218,15 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="9"/>
@@ -4594,8 +6234,15 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="9"/>
@@ -4603,8 +6250,15 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="9"/>
@@ -4612,8 +6266,15 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="9"/>
@@ -4621,8 +6282,15 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="9"/>
@@ -4630,8 +6298,15 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="9"/>
@@ -4639,8 +6314,15 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="9"/>
@@ -4648,8 +6330,15 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="9"/>
@@ -4657,8 +6346,15 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="9"/>
@@ -4666,8 +6362,15 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="9"/>
@@ -4675,8 +6378,15 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="9"/>
@@ -4684,8 +6394,15 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="9"/>
@@ -4693,8 +6410,15 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="9"/>
@@ -4702,8 +6426,15 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="9"/>
@@ -4711,8 +6442,15 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="9"/>
@@ -4720,8 +6458,15 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="9"/>
@@ -4729,8 +6474,15 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="9"/>
@@ -4738,8 +6490,15 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="9"/>
@@ -4747,8 +6506,15 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="9"/>
@@ -4757,7 +6523,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="9"/>
@@ -4766,7 +6532,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="9"/>
@@ -4775,7 +6541,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="9"/>
@@ -4784,7 +6550,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="9"/>
@@ -4793,7 +6559,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="9"/>
@@ -4802,7 +6568,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="9"/>
@@ -4811,7 +6577,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="9"/>
@@ -4820,7 +6586,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="9"/>
@@ -5883,7 +7649,16 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A4:A6"/>
@@ -5897,11 +7672,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5913,75 +7686,114 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -5989,8 +7801,15 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -5998,8 +7817,15 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -6007,8 +7833,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -6016,8 +7849,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -6025,8 +7865,15 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -6034,8 +7881,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -6043,8 +7897,15 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -6052,8 +7913,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -6061,8 +7929,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -6070,8 +7945,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
@@ -6079,8 +7961,15 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
@@ -6088,8 +7977,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
@@ -6097,8 +7993,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="9"/>
@@ -6106,8 +8009,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="9"/>
@@ -6115,8 +8025,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="9"/>
@@ -6124,8 +8041,15 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="9"/>
@@ -6133,8 +8057,15 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="9"/>
@@ -6142,8 +8073,15 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="9"/>
@@ -6151,8 +8089,15 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="9"/>
@@ -6160,8 +8105,15 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
@@ -6169,8 +8121,15 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
@@ -6178,8 +8137,15 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -6187,8 +8153,15 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
@@ -6196,8 +8169,15 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="9"/>
@@ -6205,8 +8185,15 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="9"/>
@@ -6214,8 +8201,15 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="9"/>
@@ -6223,8 +8217,15 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="9"/>
@@ -6232,8 +8233,15 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="9"/>
@@ -6241,8 +8249,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="9"/>
@@ -6250,8 +8265,15 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="9"/>
@@ -6259,8 +8281,15 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="9"/>
@@ -6268,8 +8297,15 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="9"/>
@@ -6277,8 +8313,15 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="9"/>
@@ -6286,8 +8329,15 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="9"/>
@@ -6295,8 +8345,15 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="9"/>
@@ -6304,8 +8361,15 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="9"/>
@@ -6313,8 +8377,15 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="9"/>
@@ -6322,8 +8393,15 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="9"/>
@@ -6331,8 +8409,15 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="9"/>
@@ -6340,8 +8425,15 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="9"/>
@@ -6349,8 +8441,15 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="9"/>
@@ -6358,8 +8457,15 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="9"/>
@@ -6367,8 +8473,15 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="9"/>
@@ -6376,8 +8489,15 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="9"/>
@@ -6385,8 +8505,15 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="9"/>
@@ -6394,8 +8521,15 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="9"/>
@@ -6403,8 +8537,15 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="9"/>
@@ -6412,8 +8553,15 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="9"/>
@@ -6421,8 +8569,15 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="9"/>
@@ -6430,8 +8585,15 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="9"/>
@@ -6439,8 +8601,15 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="9"/>
@@ -6448,8 +8617,15 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="9"/>
@@ -6457,8 +8633,15 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="9"/>
@@ -6466,8 +8649,15 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="9"/>
@@ -6475,8 +8665,15 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="9"/>
@@ -6484,8 +8681,15 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="9"/>
@@ -6493,8 +8697,15 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="9"/>
@@ -6502,8 +8713,15 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="9"/>
@@ -6511,8 +8729,15 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="9"/>
@@ -6520,8 +8745,15 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="9"/>
@@ -6529,8 +8761,15 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="9"/>
@@ -6538,8 +8777,15 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="9"/>
@@ -6547,8 +8793,15 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="9"/>
@@ -6556,8 +8809,15 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="9"/>
@@ -6565,8 +8825,15 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="9"/>
@@ -6575,7 +8842,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="9"/>
@@ -6584,7 +8851,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="9"/>
@@ -6593,7 +8860,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="9"/>
@@ -6602,7 +8869,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="9"/>
@@ -6611,7 +8878,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="9"/>
@@ -6620,7 +8887,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="9"/>
@@ -6629,7 +8896,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="9"/>
@@ -6638,7 +8905,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="9"/>
@@ -7701,7 +9968,16 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A4:A6"/>

--- a/rekap_ppnpns.xlsx
+++ b/rekap_ppnpns.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B463DF-508A-4DFB-AF02-EBF77A8A9131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDB153-D320-41A7-92C5-55D2FD3EAE49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
   <si>
     <t>Tanggal</t>
   </si>
@@ -82,16 +82,19 @@
     <t>PSW</t>
   </si>
   <si>
-    <t>1 - 60</t>
-  </si>
-  <si>
     <t>61 - 90</t>
   </si>
   <si>
-    <t>&gt; 90</t>
+    <t>Tidak Absen</t>
   </si>
   <si>
-    <t>Tidak Absen</t>
+    <t>1 - 30</t>
+  </si>
+  <si>
+    <t>31 - 60</t>
+  </si>
+  <si>
+    <t>&gt; 90/ Tdk Absen</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -185,8 +188,11 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,9 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -488,33 +496,34 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.7109375" customWidth="1"/>
+    <col min="8" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -524,23 +533,25 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="14" t="s">
-        <v>16</v>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
@@ -548,33 +559,39 @@
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
+      <c r="K5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>14</v>
+      <c r="O5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -593,12 +610,14 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -614,7 +633,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -630,7 +649,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -646,7 +665,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -662,7 +681,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -678,7 +697,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -694,7 +713,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -710,7 +729,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -726,7 +745,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -742,7 +761,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -3011,21 +3030,23 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="P4:P6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3034,9 +3055,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3046,32 +3069,33 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3081,23 +3105,25 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="14" t="s">
-        <v>16</v>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
@@ -3105,33 +3131,39 @@
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
+      <c r="K5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>14</v>
+      <c r="O5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
@@ -3150,12 +3182,14 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -3171,7 +3205,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -3187,7 +3221,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -3203,7 +3237,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -3219,7 +3253,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -3235,7 +3269,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -3251,7 +3285,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -3267,7 +3301,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -3283,7 +3317,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -3299,7 +3333,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -5330,21 +5364,23 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:N6"/>
+  <mergeCells count="16">
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5353,9 +5389,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5365,32 +5403,33 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -5400,23 +5439,25 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="14" t="s">
-        <v>16</v>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
@@ -5424,33 +5465,39 @@
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
+      <c r="K5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>14</v>
+      <c r="O5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
@@ -5469,12 +5516,14 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -5490,7 +5539,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -5506,7 +5555,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -5522,7 +5571,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -5538,7 +5587,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -5554,7 +5603,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -5570,7 +5619,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -5586,7 +5635,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -5602,7 +5651,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -5618,7 +5667,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -7649,21 +7698,23 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:N6"/>
+  <mergeCells count="16">
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7672,9 +7723,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7684,32 +7737,33 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -7719,23 +7773,25 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="14" t="s">
-        <v>16</v>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
@@ -7743,33 +7799,39 @@
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
+      <c r="K5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>14</v>
+      <c r="O5" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
@@ -7788,12 +7850,14 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -7809,7 +7873,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -7825,7 +7889,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -7841,7 +7905,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -7857,7 +7921,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -7873,7 +7937,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -7889,7 +7953,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -7905,7 +7969,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -7921,7 +7985,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -7937,7 +8001,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -9968,21 +10032,23 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:N6"/>
+  <mergeCells count="16">
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/rekap_ppnpns.xlsx
+++ b/rekap_ppnpns.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDB153-D320-41A7-92C5-55D2FD3EAE49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDFB82A-17DB-413E-8BC9-DDC953D15920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
   <si>
     <t>Tanggal</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>&gt; 90/ Tdk Absen</t>
+  </si>
+  <si>
+    <t>Tidak Absen Jam Kedua</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,28 +501,29 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="10.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -548,8 +552,11 @@
       <c r="P4" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
@@ -588,8 +595,9 @@
         <v>17</v>
       </c>
       <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
@@ -616,8 +624,9 @@
       <c r="N6" s="16"/>
       <c r="O6" s="18"/>
       <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -633,7 +642,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -649,7 +658,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -665,7 +674,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -681,7 +690,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -697,7 +706,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -713,7 +722,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -729,7 +738,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -745,7 +754,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -761,7 +770,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -3030,12 +3039,13 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="P4:P6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="N5:N6"/>
@@ -3049,16 +3059,16 @@
     <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,28 +3080,29 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="10.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -3120,8 +3131,11 @@
       <c r="P4" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
@@ -3160,8 +3174,9 @@
         <v>17</v>
       </c>
       <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
@@ -3188,8 +3203,9 @@
       <c r="N6" s="16"/>
       <c r="O6" s="18"/>
       <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -3205,7 +3221,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -3221,7 +3237,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -3237,7 +3253,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -3253,7 +3269,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -3269,7 +3285,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -3285,7 +3301,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -3301,7 +3317,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -3317,7 +3333,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -3333,7 +3349,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -5364,7 +5380,9 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="P4:P6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -5380,7 +5398,6 @@
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5389,10 +5406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,28 +5421,29 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="11.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -5454,8 +5472,11 @@
       <c r="P4" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
@@ -5494,8 +5515,9 @@
         <v>17</v>
       </c>
       <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
@@ -5522,8 +5544,9 @@
       <c r="N6" s="16"/>
       <c r="O6" s="18"/>
       <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -5539,7 +5562,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -5555,7 +5578,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -5571,7 +5594,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -5587,7 +5610,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -5603,7 +5626,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -5619,7 +5642,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -5635,7 +5658,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -5651,7 +5674,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -5667,7 +5690,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -7698,7 +7721,9 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="P4:P6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -7714,7 +7739,6 @@
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7723,10 +7747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:Q197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7738,28 +7762,29 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="11.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -7788,8 +7813,11 @@
       <c r="P4" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
@@ -7828,8 +7856,9 @@
         <v>17</v>
       </c>
       <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
@@ -7856,8 +7885,9 @@
       <c r="N6" s="16"/>
       <c r="O6" s="18"/>
       <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
@@ -7873,7 +7903,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -7889,7 +7919,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -7905,7 +7935,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9"/>
@@ -7921,7 +7951,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -7937,7 +7967,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
@@ -7953,7 +7983,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
@@ -7969,7 +7999,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
@@ -7985,7 +8015,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
@@ -8001,7 +8031,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -10032,7 +10062,9 @@
       <c r="G197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="P4:P6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -10048,7 +10080,6 @@
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
